--- a/liensMagasinCaissePOD-SCO.xlsx
+++ b/liensMagasinCaissePOD-SCO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEAD895E-087E-43EE-B7DD-A55886FD226B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F706A1BD-88E0-43D5-BB2C-81E7567E65AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="51840" windowHeight="21120" xr2:uid="{FCD4BFFA-91DF-4875-95E6-1E28CBA4B8B9}"/>
+    <workbookView xWindow="44115" yWindow="690" windowWidth="35340" windowHeight="10530" xr2:uid="{FCD4BFFA-91DF-4875-95E6-1E28CBA4B8B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Magasin SCO/POD ClientFR</t>
   </si>
@@ -123,13 +123,16 @@
   </si>
   <si>
     <t>https://myapps.kiabi.fr/idp/startSSO.ping?PartnerSpId=smarta090sso&amp;LoginForm=true</t>
+  </si>
+  <si>
+    <t>BARCODE generator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +165,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -184,7 +194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -196,6 +206,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -534,7 +545,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="A1:E13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,10 +576,12 @@
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">

--- a/liensMagasinCaissePOD-SCO.xlsx
+++ b/liensMagasinCaissePOD-SCO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F706A1BD-88E0-43D5-BB2C-81E7567E65AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769C500F-9D71-41FE-8A5B-8B53CFCFA931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44115" yWindow="690" windowWidth="35340" windowHeight="10530" xr2:uid="{FCD4BFFA-91DF-4875-95E6-1E28CBA4B8B9}"/>
+    <workbookView xWindow="30990" yWindow="5190" windowWidth="35340" windowHeight="10530" xr2:uid="{FCD4BFFA-91DF-4875-95E6-1E28CBA4B8B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Magasin SCO/POD ClientFR</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>BARCODE generator</t>
+  </si>
+  <si>
+    <t>GlobalBlue</t>
   </si>
 </sst>
 </file>
@@ -545,15 +548,15 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="99.77734375" customWidth="1"/>
+    <col min="4" max="4" width="111.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -618,9 +621,11 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">

--- a/liensMagasinCaissePOD-SCO.xlsx
+++ b/liensMagasinCaissePOD-SCO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769C500F-9D71-41FE-8A5B-8B53CFCFA931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F77895-ADE2-44D1-9482-818AB5DC3182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30990" yWindow="5190" windowWidth="35340" windowHeight="10530" xr2:uid="{FCD4BFFA-91DF-4875-95E6-1E28CBA4B8B9}"/>
+    <workbookView xWindow="50385" yWindow="3225" windowWidth="25545" windowHeight="11670" xr2:uid="{FCD4BFFA-91DF-4875-95E6-1E28CBA4B8B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -548,7 +548,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/liensMagasinCaissePOD-SCO.xlsx
+++ b/liensMagasinCaissePOD-SCO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F77895-ADE2-44D1-9482-818AB5DC3182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E1C134-85F8-41F3-BDA7-1240C0C91696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50385" yWindow="3225" windowWidth="25545" windowHeight="11670" xr2:uid="{FCD4BFFA-91DF-4875-95E6-1E28CBA4B8B9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>Magasin SCO/POD ClientFR</t>
   </si>
@@ -548,13 +548,13 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="111.33203125" customWidth="1"/>
   </cols>
@@ -578,7 +578,9 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="5" t="s">
         <v>29</v>
       </c>

--- a/liensMagasinCaissePOD-SCO.xlsx
+++ b/liensMagasinCaissePOD-SCO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E1C134-85F8-41F3-BDA7-1240C0C91696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E4BFD5-427C-4E6B-830A-E5B712B56646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50385" yWindow="3225" windowWidth="25545" windowHeight="11670" xr2:uid="{FCD4BFFA-91DF-4875-95E6-1E28CBA4B8B9}"/>
+    <workbookView xWindow="35265" yWindow="4785" windowWidth="25545" windowHeight="11670" xr2:uid="{FCD4BFFA-91DF-4875-95E6-1E28CBA4B8B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>Magasin SCO/POD ClientFR</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>3xONEY</t>
-  </si>
-  <si>
-    <t>https://open.oney.fr/#/login</t>
   </si>
   <si>
     <t>https://barcode.tec-it.com</t>
@@ -135,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +172,13 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -197,7 +201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -210,6 +214,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -548,7 +556,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,18 +568,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -582,10 +582,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -595,10 +595,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -608,13 +608,13 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -623,10 +623,10 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -636,10 +636,10 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -649,10 +649,10 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -662,10 +662,10 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -675,13 +675,13 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -690,10 +690,10 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -701,14 +701,12 @@
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -716,14 +714,14 @@
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -731,17 +729,27 @@
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
@@ -753,7 +761,7 @@
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{E3ED1870-ED05-4CF1-B6B8-F8571BFFB33E}"/>
     <hyperlink ref="D7" r:id="rId2" xr:uid="{68CE2635-8129-4517-892D-514ABB806B19}"/>
-    <hyperlink ref="D13" r:id="rId3" xr:uid="{3985C4F2-CDD2-4B8B-962A-15731BB0C764}"/>
+    <hyperlink ref="D14" r:id="rId3" xr:uid="{4D0A7B58-2A62-47FC-9788-1A83C717E44B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/liensMagasinCaissePOD-SCO.xlsx
+++ b/liensMagasinCaissePOD-SCO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E4BFD5-427C-4E6B-830A-E5B712B56646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C98BDCC-6252-4F43-829A-E3445D2B11B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35265" yWindow="4785" windowWidth="25545" windowHeight="11670" xr2:uid="{FCD4BFFA-91DF-4875-95E6-1E28CBA4B8B9}"/>
+    <workbookView xWindow="35265" yWindow="4785" windowWidth="31650" windowHeight="11670" xr2:uid="{FCD4BFFA-91DF-4875-95E6-1E28CBA4B8B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>Magasin SCO/POD ClientFR</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>GlobalBlue</t>
+  </si>
+  <si>
+    <t>https://t4.ftcdn.net/jpg/01/33/48/03/360_F_133480376_PWlsZ1Bdr2SVnTRpb8jCtY59CyEBdoUt.jpg</t>
   </si>
 </sst>
 </file>
@@ -553,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234F1D88-F59A-4C4B-B052-8E064C6A2908}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="F1" sqref="F1:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,16 +568,20 @@
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="111.33203125" customWidth="1"/>
+    <col min="6" max="6" width="81.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -588,8 +595,11 @@
         <v>3</v>
       </c>
       <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -601,8 +611,11 @@
         <v>5</v>
       </c>
       <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -616,8 +629,11 @@
       <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -629,8 +645,11 @@
         <v>9</v>
       </c>
       <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -642,8 +661,11 @@
         <v>11</v>
       </c>
       <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -655,8 +677,11 @@
         <v>13</v>
       </c>
       <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -668,8 +693,11 @@
         <v>15</v>
       </c>
       <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -683,8 +711,11 @@
       <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -696,8 +727,11 @@
         <v>19</v>
       </c>
       <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -709,8 +743,11 @@
         <v>22</v>
       </c>
       <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -724,8 +761,11 @@
         <v>22</v>
       </c>
       <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -739,8 +779,11 @@
         <v>25</v>
       </c>
       <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -750,11 +793,14 @@
       <c r="D14" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
     </row>
   </sheetData>

--- a/liensMagasinCaissePOD-SCO.xlsx
+++ b/liensMagasinCaissePOD-SCO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C98BDCC-6252-4F43-829A-E3445D2B11B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD01578D-B0E5-4C0A-BA52-2A20E63A30CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35265" yWindow="4785" windowWidth="31650" windowHeight="11670" xr2:uid="{FCD4BFFA-91DF-4875-95E6-1E28CBA4B8B9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>Magasin SCO/POD ClientFR</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>https://t4.ftcdn.net/jpg/01/33/48/03/360_F_133480376_PWlsZ1Bdr2SVnTRpb8jCtY59CyEBdoUt.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/fr/thumb/d/d6/Logo_Worldline_-_2021.svg/800px-Logo_Worldline_-_2021.svg.png</t>
   </si>
 </sst>
 </file>
@@ -559,7 +562,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,7 +765,7 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">

--- a/liensMagasinCaissePOD-SCO.xlsx
+++ b/liensMagasinCaissePOD-SCO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD01578D-B0E5-4C0A-BA52-2A20E63A30CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377C440C-F519-486E-8E2B-D48C5D008105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35265" yWindow="4785" windowWidth="31650" windowHeight="11670" xr2:uid="{FCD4BFFA-91DF-4875-95E6-1E28CBA4B8B9}"/>
+    <workbookView xWindow="31980" yWindow="5280" windowWidth="31650" windowHeight="11670" xr2:uid="{FCD4BFFA-91DF-4875-95E6-1E28CBA4B8B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>Magasin SCO/POD ClientFR</t>
   </si>
@@ -128,10 +128,28 @@
     <t>GlobalBlue</t>
   </si>
   <si>
-    <t>https://t4.ftcdn.net/jpg/01/33/48/03/360_F_133480376_PWlsZ1Bdr2SVnTRpb8jCtY59CyEBdoUt.jpg</t>
-  </si>
-  <si>
     <t>https://upload.wikimedia.org/wikipedia/fr/thumb/d/d6/Logo_Worldline_-_2021.svg/800px-Logo_Worldline_-_2021.svg.png</t>
+  </si>
+  <si>
+    <t>https://cdn.prod.website-files.com/657c80cc477a31a499849a7f/667f1639c800c15e37c46c78_barcode-generator-logo.webp</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/fr/thumb/2/2e/R%C3%A9gion_Hauts-de-France_logo_2016.svg/2048px-R%C3%A9gion_Hauts-de-France_logo_2016.svg.png</t>
+  </si>
+  <si>
+    <t>https://s3-eu-west-1.amazonaws.com/tpd/logos/5447a9cf00006400057b13a3/0x0.png</t>
+  </si>
+  <si>
+    <t>https://png.pngtree.com/png-vector/20230423/ourmid/pngtree-appointment-line-icon-vector-png-image_6720015.png</t>
+  </si>
+  <si>
+    <t>https://www.verifiance-fnci.fr/Souscription/assets/ctx/2374d0af/resources/aem-import/css/images/logo-verifiance.png</t>
+  </si>
+  <si>
+    <t>https://leparcduluc.fr/wp-content/uploads/2022/08/1200px-Kiabi_logo.svg.png</t>
+  </si>
+  <si>
+    <t>https://creation-entreprise.info/wp-content/uploads/2024/05/smart-rh.jpg</t>
   </si>
 </sst>
 </file>
@@ -207,7 +225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -224,6 +242,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -562,7 +581,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,9 +599,6 @@
       <c r="C1" s="3"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -599,7 +615,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -614,9 +630,6 @@
         <v>5</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -633,7 +646,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -648,8 +661,8 @@
         <v>9</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" t="s">
-        <v>30</v>
+      <c r="F5" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -664,9 +677,6 @@
         <v>11</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -680,9 +690,6 @@
         <v>13</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -697,7 +704,7 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -715,7 +722,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -730,9 +737,6 @@
         <v>19</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -746,9 +750,6 @@
         <v>22</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -765,7 +766,7 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -783,7 +784,7 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -797,7 +798,7 @@
         <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -811,6 +812,7 @@
     <hyperlink ref="D4" r:id="rId1" xr:uid="{E3ED1870-ED05-4CF1-B6B8-F8571BFFB33E}"/>
     <hyperlink ref="D7" r:id="rId2" xr:uid="{68CE2635-8129-4517-892D-514ABB806B19}"/>
     <hyperlink ref="D14" r:id="rId3" xr:uid="{4D0A7B58-2A62-47FC-9788-1A83C717E44B}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{BC7A6C1F-6F28-4BB4-AE1F-71A4471BBD10}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/liensMagasinCaissePOD-SCO.xlsx
+++ b/liensMagasinCaissePOD-SCO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377C440C-F519-486E-8E2B-D48C5D008105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00EBBF4-0A6F-4BDE-A283-7C961D3BF956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31980" yWindow="5280" windowWidth="31650" windowHeight="11670" xr2:uid="{FCD4BFFA-91DF-4875-95E6-1E28CBA4B8B9}"/>
+    <workbookView xWindow="30075" yWindow="2865" windowWidth="31650" windowHeight="11670" xr2:uid="{FCD4BFFA-91DF-4875-95E6-1E28CBA4B8B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>Magasin SCO/POD ClientFR</t>
   </si>
@@ -140,9 +140,6 @@
     <t>https://s3-eu-west-1.amazonaws.com/tpd/logos/5447a9cf00006400057b13a3/0x0.png</t>
   </si>
   <si>
-    <t>https://png.pngtree.com/png-vector/20230423/ourmid/pngtree-appointment-line-icon-vector-png-image_6720015.png</t>
-  </si>
-  <si>
     <t>https://www.verifiance-fnci.fr/Souscription/assets/ctx/2374d0af/resources/aem-import/css/images/logo-verifiance.png</t>
   </si>
   <si>
@@ -150,6 +147,12 @@
   </si>
   <si>
     <t>https://creation-entreprise.info/wp-content/uploads/2024/05/smart-rh.jpg</t>
+  </si>
+  <si>
+    <t>https://fr.packcity.com/Packcity/images/logoPckCity.png</t>
+  </si>
+  <si>
+    <t>https://static.reserved.com/media/SHARED/stronywizerunkowe/reserved/cms/help/klarna_pink.png</t>
   </si>
 </sst>
 </file>
@@ -580,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234F1D88-F59A-4C4B-B052-8E064C6A2908}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,6 +633,9 @@
         <v>5</v>
       </c>
       <c r="E3" s="3"/>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -677,6 +683,9 @@
         <v>11</v>
       </c>
       <c r="E6" s="3"/>
+      <c r="F6" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -704,7 +713,7 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -722,7 +731,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -750,6 +759,9 @@
         <v>22</v>
       </c>
       <c r="E11" s="3"/>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -784,7 +796,7 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -797,8 +809,8 @@
       <c r="D14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F14" t="s">
-        <v>37</v>
+      <c r="F14" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -813,6 +825,8 @@
     <hyperlink ref="D7" r:id="rId2" xr:uid="{68CE2635-8129-4517-892D-514ABB806B19}"/>
     <hyperlink ref="D14" r:id="rId3" xr:uid="{4D0A7B58-2A62-47FC-9788-1A83C717E44B}"/>
     <hyperlink ref="F5" r:id="rId4" xr:uid="{BC7A6C1F-6F28-4BB4-AE1F-71A4471BBD10}"/>
+    <hyperlink ref="F14" r:id="rId5" xr:uid="{BA84FE7F-DF5E-437D-A4E9-3A961A600047}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{F54A7231-5258-4DAF-9EA2-AA931D45AA98}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/liensMagasinCaissePOD-SCO.xlsx
+++ b/liensMagasinCaissePOD-SCO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00EBBF4-0A6F-4BDE-A283-7C961D3BF956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128A1375-955C-4F00-84CB-DF8420E322F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30075" yWindow="2865" windowWidth="31650" windowHeight="11670" xr2:uid="{FCD4BFFA-91DF-4875-95E6-1E28CBA4B8B9}"/>
+    <workbookView xWindow="28695" yWindow="75" windowWidth="26010" windowHeight="20985" xr2:uid="{FCD4BFFA-91DF-4875-95E6-1E28CBA4B8B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>Magasin SCO/POD ClientFR</t>
   </si>
@@ -110,18 +110,6 @@
     <t xml:space="preserve"> -Ressources Humaines</t>
   </si>
   <si>
-    <t>K'IAM</t>
-  </si>
-  <si>
-    <t>https://iamuaprod.kiabi.fr/idmdash</t>
-  </si>
-  <si>
-    <t>SRMARTRH</t>
-  </si>
-  <si>
-    <t>https://myapps.kiabi.fr/idp/startSSO.ping?PartnerSpId=smarta090sso&amp;LoginForm=true</t>
-  </si>
-  <si>
     <t>BARCODE generator</t>
   </si>
   <si>
@@ -144,9 +132,6 @@
   </si>
   <si>
     <t>https://leparcduluc.fr/wp-content/uploads/2022/08/1200px-Kiabi_logo.svg.png</t>
-  </si>
-  <si>
-    <t>https://creation-entreprise.info/wp-content/uploads/2024/05/smart-rh.jpg</t>
   </si>
   <si>
     <t>https://fr.packcity.com/Packcity/images/logoPckCity.png</t>
@@ -584,7 +569,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,14 +596,14 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -634,7 +619,7 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -652,7 +637,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -661,14 +646,14 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -684,7 +669,7 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -713,7 +698,7 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -731,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -760,7 +745,7 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -778,7 +763,7 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -788,30 +773,17 @@
       <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="3"/>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
@@ -823,10 +795,8 @@
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{E3ED1870-ED05-4CF1-B6B8-F8571BFFB33E}"/>
     <hyperlink ref="D7" r:id="rId2" xr:uid="{68CE2635-8129-4517-892D-514ABB806B19}"/>
-    <hyperlink ref="D14" r:id="rId3" xr:uid="{4D0A7B58-2A62-47FC-9788-1A83C717E44B}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{BC7A6C1F-6F28-4BB4-AE1F-71A4471BBD10}"/>
-    <hyperlink ref="F14" r:id="rId5" xr:uid="{BA84FE7F-DF5E-437D-A4E9-3A961A600047}"/>
-    <hyperlink ref="F6" r:id="rId6" xr:uid="{F54A7231-5258-4DAF-9EA2-AA931D45AA98}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{BC7A6C1F-6F28-4BB4-AE1F-71A4471BBD10}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{F54A7231-5258-4DAF-9EA2-AA931D45AA98}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
